--- a/Documentos/AEROLINEAS Grupos.xlsx
+++ b/Documentos/AEROLINEAS Grupos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -904,8 +904,8 @@
   <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/AEROLINEAS Grupos.xlsx
+++ b/Documentos/AEROLINEAS Grupos.xlsx
@@ -905,7 +905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
